--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
   <si>
     <t>Subject Journal Report</t>
   </si>
   <si>
-    <t xml:space="preserve">Date          </t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -37,13 +35,160 @@
   </si>
   <si>
     <t>Health Condition</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Mildly ill</t>
+  </si>
+  <si>
+    <t>Date   :</t>
+  </si>
+  <si>
+    <t>Wakw Up</t>
+  </si>
+  <si>
+    <t>Dinner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breakfast </t>
+  </si>
+  <si>
+    <t>YES12.39</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>HOME</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Invitation</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Power Nap</t>
+  </si>
+  <si>
+    <t>Bedtime</t>
+  </si>
+  <si>
+    <t>Meditation</t>
+  </si>
+  <si>
+    <t>Workout</t>
+  </si>
+  <si>
+    <t>Shower</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Fast Food</t>
+  </si>
+  <si>
+    <t>MSB</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>Cannabis</t>
+  </si>
+  <si>
+    <t>Tobacco</t>
+  </si>
+  <si>
+    <t>Vap</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>PRN</t>
+  </si>
+  <si>
+    <t>Toothbrush</t>
+  </si>
+  <si>
+    <t>Drinking</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>20Y2M23D</t>
+  </si>
+  <si>
+    <t>Namaj</t>
+  </si>
+  <si>
+    <t>Fajr Dhuhr Asr Maghrib Isha Qiyam</t>
+  </si>
+  <si>
+    <t>Calories Burn</t>
+  </si>
+  <si>
+    <t>Amount of Sleep</t>
+  </si>
+  <si>
+    <t>Social Media Use</t>
+  </si>
+  <si>
+    <t>Any Mistake</t>
+  </si>
+  <si>
+    <t>Yes Big Mistake</t>
+  </si>
+  <si>
+    <t>Yes Small Mistake</t>
+  </si>
+  <si>
+    <t>Yes Little Something</t>
+  </si>
+  <si>
+    <t>Mental Condition</t>
+  </si>
+  <si>
+    <t>Learn</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>A Comprehensive Overview Of Everything In This Day At Once</t>
+  </si>
+  <si>
+    <t>Earn</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Donation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,14 +202,6 @@
       <color theme="1"/>
       <name val="VT323"/>
       <family val="3"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -83,13 +220,38 @@
       <name val="VT323"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF231F20"/>
+      <name val="VT323"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF001D35"/>
+      <name val="VT323"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="VT323"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -104,19 +266,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,75 +593,1459 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="1.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="I1" s="5">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="E1" s="12">
         <v>20041001</v>
       </c>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="29.25" x14ac:dyDescent="0.6">
-      <c r="A4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7">
+        <v>38270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="1"/>
-      <c r="I4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>38270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="14"/>
+      <c r="B40" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+    </row>
+    <row r="88" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+    </row>
+    <row r="89" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+    </row>
+    <row r="95" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+    </row>
+    <row r="97" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+    </row>
+    <row r="101" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+    </row>
+    <row r="102" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+    </row>
+    <row r="108" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+    </row>
+    <row r="111" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+    </row>
+    <row r="112" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+    </row>
+    <row r="113" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+    </row>
+    <row r="114" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+    </row>
+    <row r="115" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+    </row>
+    <row r="116" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+    </row>
+    <row r="117" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+    </row>
+    <row r="120" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+    </row>
+    <row r="123" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+    </row>
+    <row r="125" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+    </row>
+    <row r="129" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+    </row>
+    <row r="131" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+    </row>
+    <row r="133" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+    </row>
+    <row r="134" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+    </row>
+    <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+    </row>
+    <row r="137" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+    </row>
+    <row r="138" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+    </row>
+    <row r="139" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+    </row>
+    <row r="141" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+    </row>
+    <row r="142" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+    </row>
+    <row r="143" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+    </row>
+    <row r="144" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A144" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="I1:J2"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="A33:F33"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.4" top="0.28999999999999998" bottom="0.31" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C6:C7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$9:$A$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>C25</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$D$5:$D$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$D$8:$D$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>C38</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$14:$A$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>C39</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="30" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>